--- a/pred_ohlcv/54_21/2020-01-19 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>620768.8599671299</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>632374.5958161799</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>573977.9911161799</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>494277.0533161798</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>379275.3627161798</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>442370.2506161798</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>562309.6962200998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>340406.2208200998</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>451156.2448200998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>451156.2448200998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>413048.0343200998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>413048.0343200998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>412550.2469200998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>327268.7483200998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>396677.9110200998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>361417.0114200998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>409336.7610200998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>409336.7610200998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>569092.3328200998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>546299.0296200998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>552172.8264200998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>552172.8264200998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>552172.8264200998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>570172.8264200998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>616947.7983200998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>660108.2822355299</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>533606.9096355299</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>481277.9899355299</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>481277.9899355299</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>509158.1359355299</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>509158.1359355299</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>511596.0021355299</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>471355.7264355299</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>406726.7637355299</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>404176.6644355299</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>404176.6644355299</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>388603.8312355299</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>487498.3984355299</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>510459.3454355299</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>499624.2414355299</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>450793.7730362799</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>653173.7529362799</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>715714.0103362799</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>715714.0103362799</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>648815.5482362799</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>670622.5947362799</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>670622.5947362799</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>598334.4201362799</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>598334.4201362799</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>570950.7661362799</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>459372.3873362799</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>384361.7314362799</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>352869.7160362799</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>430628.1984362799</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>619817.4532362799</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>515530.5926362799</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>379341.5314893998</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>429208.6088893999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>397932.5104893998</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>395864.8096893998</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>395864.8096893998</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>482127.9903893998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>212981.4481279698</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>239558.5446279698</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>239558.5446279698</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>239558.5446279698</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>205358.2044279698</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>237447.5092279698</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>237447.5092279698</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>247909.1502279698</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>238958.7699279698</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>248169.4659279698</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>208647.6549279698</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>208647.6549279698</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>166257.5284279698</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>71292.97962796978</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>91496.49372796978</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>91496.49372796978</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>190552.0797279698</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>190552.0797279698</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>190552.0797279698</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>666340.0232866098</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>647359.6735399897</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>683220.0103399898</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>948759.0694754599</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3513086.541896221</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3513086.541896221</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3554831.018696221</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3591931.20744906</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3644260.62999511</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3782208.24436617</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3782208.24436617</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4091312.26626617</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4194722.81886617</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3960319.36404566</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3896748.07864566</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3896748.07864566</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3933282.32504566</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3697777.29084566</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3697777.29084566</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3671144.13357508</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3677665.55247508</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3627729.27787508</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3688669.32247508</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3566783.73277508</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3542991.99759026</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3531815.88559514</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>2565507.45508443</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2610472.24988443</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2610472.24988443</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2625039.78818443</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2635361.01378443</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2635361.01378443</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2639042.41378443</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2480987.4946643</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2450647.44332229</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2449637.44332229</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2455012.13942229</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2455012.13942229</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2455732.33052229</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2455732.33052229</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2455732.33052229</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2454371.27932229</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2454371.27932229</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2422086.00422229</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2401224.95682229</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2427467.17252229</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>2125912.760622289</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-1223437.774113101</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-751633.8865131012</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-617927.0042867311</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-481466.5209867312</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-609579.3032867311</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-620956.2320867311</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-613728.8789016611</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-595649.8294016612</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-582131.1673016612</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-343756.1721888912</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-410092.4503224312</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-387802.5856224312</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-387802.5856224312</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-383622.5506559712</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-582645.4412559712</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-551258.4901559713</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-551258.4901559713</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-554425.7975559713</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-554425.7975559713</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-554425.7975559713</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-554425.7975559713</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-478706.0541245713</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-482015.5632245713</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-469170.7121786514</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-544125.5925786514</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-565999.3175738214</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-347617.0752689914</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-385499.3739689914</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-395499.3738689914</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-412497.4892689914</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-369884.0520689914</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-355464.0520689914</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-355464.0520689914</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-355464.0520689914</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-350284.8798689914</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-362163.2892689914</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-365186.2551689915</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-365186.2551689915</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-331486.4502689915</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-331862.7033412814</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-331078.9221412814</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-331078.9221412814</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-331078.9221412814</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-361658.1268412814</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-323713.4282412814</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-199064.8367412814</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-144020.5801412814</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-144020.5801412814</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-95143.61685209145</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-75450.85275209145</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-62149.39671249145</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-65433.76641249145</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-59391.50575209145</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-219935.8516916914</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-13378.59049169143</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>31585.43220830857</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>40723.39444254857</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>40723.39444254857</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>5060.067042548566</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>19120.90864254857</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>4880.066942548565</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>4878.190542548565</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>23736.28032306856</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>18418.76232306856</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>18418.76232306856</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>59505.02561012856</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-43701.82197039144</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-43701.82197039144</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-43701.82197039144</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-44078.44347039144</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-134320.6708703914</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-133904.0563703915</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-133904.0563703915</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-134420.9268703914</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-120494.9139703914</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-173579.3689135414</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-168120.9399671614</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-212125.5772671614</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-195270.9818671614</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-266913.7713671614</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-275400.8191671614</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-326904.8191671614</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-323956.8037671614</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-323956.8037671614</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-323956.8037671614</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-346234.1151671614</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-397188.4831671615</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-273334.6200671614</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-287849.9753780714</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-181195.1102084414</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-181990.7241084414</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-181990.7241084414</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-173228.5704084414</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-173228.5704084414</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-211743.4587084414</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-214789.3678084414</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-188449.6702084414</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-188449.6702084414</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-172317.6517084414</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-178065.3551000214</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-129280.8474000214</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-129280.8474000214</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-129487.9287000214</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-133970.4669000214</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-133970.4669000214</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-175909.6744000214</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-168662.3568000215</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-68194.48810002142</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-68194.48810002142</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>196827.5871998585</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>254811.4196998585</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>276408.8131998585</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>249296.0309998585</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>249609.6321998585</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>268158.8997998585</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>268158.8997998585</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>268158.8997998585</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>269961.5822998585</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>239508.3524998585</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>213376.3077998585</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>240931.8722998585</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>244765.4333998585</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>199982.7078998585</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>243522.9231998585</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>279940.1107998585</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>279940.1107998585</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>274725.9514998585</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>275021.0210998585</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>275021.0210998585</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>275021.0210998585</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>274053.8529998585</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>311981.2925998585</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>360145.3572998585</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>321826.4745998585</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>329654.5594998585</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>334455.8179998585</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>295311.8497998585</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>400102.4252998584</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>457609.7106998584</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>393215.2650998585</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>402726.4758998585</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>318296.5254998584</v>
       </c>
       <c r="H1021">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>330339.7595998584</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>347141.9469998584</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>376981.9204998584</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>376981.9204998584</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>376981.9204998584</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>406458.0699998584</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>661573.3025963285</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>1348460.659378378</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>1348460.659378378</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>1349580.948178378</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>1184487.030378378</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>1185340.351478378</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>1166466.854778378</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>1168608.878678378</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>1150853.878878378</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>1150853.878878378</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>1152683.232978378</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>1150637.956578378</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>1150637.956578378</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>1165877.635678378</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>1142711.536078378</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>1165503.358978378</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>1157689.198978378</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>1158514.405478378</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>1490346.989746638</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>1490346.989746638</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>1490346.989746638</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>1490346.989746638</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>1468392.228946638</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>1468592.228946638</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>1527698.735219098</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>1527898.735219098</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>1697181.728419098</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>1704553.033443238</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>1691097.901335998</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>1422909.218728758</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>1422419.299328758</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>1455124.458228758</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>1451202.575728758</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>1451202.575728758</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>1451243.963328758</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>1965678.803304618</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>2033758.470104618</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>2149270.030804618</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>2156697.148804618</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>2156697.148804618</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>2148369.535404618</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>2141128.141304618</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>2141656.902204618</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>2137749.718965358</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>2110351.074635148</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>2110503.063035148</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>2117227.753935148</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>2117227.753935148</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>2095072.452935148</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>2095072.452935148</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>2095072.452935148</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>2095072.452935148</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>2037011.769835148</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>4496817.489724827</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>4767736.967808577</v>
       </c>
       <c r="H1274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>4773666.601308578</v>
       </c>
       <c r="H1275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>4793588.309429298</v>
       </c>
       <c r="H1276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>4795215.849229299</v>
       </c>
       <c r="H1277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>4774218.124229299</v>
       </c>
       <c r="H1278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>4699901.072029299</v>
       </c>
       <c r="H1279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>4733703.136220419</v>
       </c>
       <c r="H1280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>4719038.136220419</v>
       </c>
       <c r="H1281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>4753366.777350859</v>
       </c>
       <c r="H1282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>4709951.925350859</v>
       </c>
       <c r="H1283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>4699112.247750859</v>
       </c>
       <c r="H1284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>4860001.188118679</v>
       </c>
       <c r="H1285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>4825810.218617879</v>
       </c>
       <c r="H1286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>4828476.788317879</v>
       </c>
       <c r="H1287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>4887399.747217879</v>
       </c>
       <c r="H1288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>4870876.507317878</v>
       </c>
       <c r="H1289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>4823557.183117879</v>
       </c>
       <c r="H1290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>4883187.983875999</v>
       </c>
       <c r="H1293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>4907096.166975999</v>
       </c>
       <c r="H1294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>5104960.31975328</v>
       </c>
       <c r="H1304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>5237858.76440095</v>
       </c>
       <c r="H1305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>5282597.080193129</v>
       </c>
       <c r="H1306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>5248288.62568526</v>
       </c>
       <c r="H1307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>5001272.686685259</v>
       </c>
       <c r="H1308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>5102662.487785259</v>
       </c>
       <c r="H1309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>5476814.27330998</v>
       </c>
       <c r="H1310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>5205593.08400998</v>
       </c>
       <c r="H1311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>5276724.36098938</v>
       </c>
       <c r="H1312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>5414884.92778938</v>
       </c>
       <c r="H1313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>5590425.94305751</v>
       </c>
       <c r="H1314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>5737135.0971215</v>
       </c>
       <c r="H1315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>620768.8599671299</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>632374.5958161799</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>573977.9911161799</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>494277.0533161798</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>379275.3627161798</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>442370.2506161798</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>562309.6962200998</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>340406.2208200998</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>451156.2448200998</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>451156.2448200998</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>413048.0343200998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>413048.0343200998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>412550.2469200998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>327268.7483200998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>396677.9110200998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>361417.0114200998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>569092.3328200998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>546299.0296200998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>552172.8264200998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>552172.8264200998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>552172.8264200998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>570172.8264200998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>616947.7983200998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>660108.2822355299</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>533606.9096355299</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>481277.9899355299</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>481277.9899355299</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>509158.1359355299</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>509158.1359355299</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>511596.0021355299</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>471355.7264355299</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>406726.7637355299</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>404176.6644355299</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>404176.6644355299</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>388603.8312355299</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>487498.3984355299</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>510459.3454355299</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>499624.2414355299</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>450793.7730362799</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>653173.7529362799</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>715714.0103362799</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>715714.0103362799</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>648815.5482362799</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>670622.5947362799</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>670622.5947362799</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>598334.4201362799</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>598334.4201362799</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>570950.7661362799</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>459372.3873362799</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>384361.7314362799</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>352869.7160362799</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>430628.1984362799</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>619817.4532362799</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>515530.5926362799</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>379341.5314893998</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>482127.9903893998</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>212981.4481279698</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>239558.5446279698</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>239558.5446279698</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>239558.5446279698</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>205358.2044279698</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>237447.5092279698</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>237447.5092279698</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>247909.1502279698</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>238958.7699279698</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>248169.4659279698</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>208647.6549279698</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>208647.6549279698</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>166257.5284279698</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>71292.97962796978</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>91496.49372796978</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>91496.49372796978</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>190552.0797279698</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>190552.0797279698</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>190552.0797279698</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>666340.0232866098</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>647359.6735399897</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>683220.0103399898</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>948759.0694754599</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3340997.859109341</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3340997.859109341</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3314139.93790934</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3372458.088909341</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3464653.680882851</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3365274.655082851</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3471495.360396221</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3471495.360396221</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3582957.820296221</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3513086.541896221</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3513086.541896221</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3554831.018696221</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3591931.20744906</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3644260.62999511</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3782208.24436617</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3782208.24436617</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4091312.26626617</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4194722.81886617</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3960319.36404566</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3896748.07864566</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3896748.07864566</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3933282.32504566</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3697777.29084566</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3697777.29084566</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3671144.13357508</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3677665.55247508</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3627729.27787508</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3688669.32247508</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3566783.73277508</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3542991.99759026</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3531815.88559514</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3490973.27196659</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3289278.26456659</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>2565507.45508443</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2610472.24988443</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2610472.24988443</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2625039.78818443</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2635361.01378443</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2635361.01378443</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2639042.41378443</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2480987.4946643</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2450647.44332229</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2449637.44332229</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2455012.13942229</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2455012.13942229</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2455732.33052229</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2455732.33052229</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2455732.33052229</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2454371.27932229</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2454371.27932229</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2422086.00422229</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2401224.95682229</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2427467.17252229</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>2125912.760622289</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2626897.340797229</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2528836.814197229</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2591093.646532629</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2713275.058112409</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-1223437.774113101</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-986872.7760131012</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-942221.9137131012</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-942221.9137131012</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-942221.9137131012</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-832193.0727131012</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-751633.8865131012</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-625242.7578131012</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-589419.9111867312</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-617927.0042867311</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-617927.0042867311</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-481466.5209867312</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-609579.3032867311</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-620956.2320867311</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-613728.8789016611</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-595649.8294016612</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-582131.1673016612</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-565249.3013016612</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-343756.1721888912</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-410092.4503224312</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-387802.5856224312</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-387802.5856224312</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-383622.5506559712</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-582645.4412559712</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-551258.4901559713</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-551258.4901559713</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-554425.7975559713</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-554425.7975559713</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-554425.7975559713</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-554425.7975559713</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-478706.0541245713</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-482015.5632245713</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-469170.7121786514</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-544125.5925786514</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-565999.3175738214</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-347617.0752689914</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-385499.3739689914</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-395499.3738689914</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-412497.4892689914</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-369884.0520689914</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-355464.0520689914</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-355464.0520689914</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-355464.0520689914</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-350284.8798689914</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-362163.2892689914</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-365186.2551689915</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-365186.2551689915</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-331486.4502689915</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-331862.7033412814</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-331078.9221412814</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-331078.9221412814</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-331078.9221412814</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-361658.1268412814</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-323713.4282412814</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-199064.8367412814</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-144020.5801412814</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-144020.5801412814</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-95143.61685209145</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-75450.85275209145</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-62149.39671249145</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-65433.76641249145</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-59391.50575209145</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-219935.8516916914</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-13378.59049169143</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>31585.43220830857</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>40723.39444254857</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>40723.39444254857</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>5060.067042548566</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>19120.90864254857</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>4880.066942548565</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>4878.190542548565</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>23736.28032306856</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>18418.76232306856</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>18418.76232306856</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>56720.54687779857</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>59505.02561012856</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-43701.82197039144</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-43701.82197039144</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-43701.82197039144</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-44078.44347039144</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-134320.6708703914</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-133904.0563703915</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-133904.0563703915</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-134420.9268703914</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-120494.9139703914</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-173579.3689135414</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-168120.9399671614</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-212125.5772671614</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-195270.9818671614</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-266913.7713671614</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-275400.8191671614</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-326904.8191671614</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-323956.8037671614</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-323956.8037671614</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-323956.8037671614</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-346234.1151671614</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-397188.4831671615</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-273334.6200671614</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-287849.9753780714</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-181195.1102084414</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-181990.7241084414</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-181990.7241084414</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-173228.5704084414</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-173228.5704084414</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-211743.4587084414</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-214789.3678084414</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-188449.6702084414</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-188449.6702084414</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-172317.6517084414</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-178065.3551000214</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-129280.8474000214</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-129280.8474000214</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-129487.9287000214</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-133970.4669000214</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-133970.4669000214</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-175909.6744000214</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-168662.3568000215</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-68194.48810002142</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-68194.48810002142</v>
       </c>
       <c r="H965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>196827.5871998585</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>254811.4196998585</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>276408.8131998585</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>249296.0309998585</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>249609.6321998585</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>268158.8997998585</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>268158.8997998585</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>268158.8997998585</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>269961.5822998585</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>239508.3524998585</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>213376.3077998585</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>240931.8722998585</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>244765.4333998585</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>199982.7078998585</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>243522.9231998585</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>279940.1107998585</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>279940.1107998585</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>274725.9514998585</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>275021.0210998585</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>275021.0210998585</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>275021.0210998585</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>274053.8529998585</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>311981.2925998585</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>360145.3572998585</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>321826.4745998585</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>329654.5594998585</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>334455.8179998585</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>295311.8497998585</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>400102.4252998584</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>457609.7106998584</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>393215.2650998585</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>402726.4758998585</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>318296.5254998584</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>330339.7595998584</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>347141.9469998584</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>376981.9204998584</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>376981.9204998584</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>376981.9204998584</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>406458.0699998584</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>661573.3025963285</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>1348460.659378378</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>1348460.659378378</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>1349580.948178378</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>1184487.030378378</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>1185340.351478378</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>1166466.854778378</v>
       </c>
       <c r="H1123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>1168608.878678378</v>
       </c>
       <c r="H1124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>1150853.878878378</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>1150853.878878378</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>1152683.232978378</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>1150637.956578378</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>1150637.956578378</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>1165877.635678378</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>1142711.536078378</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>1165503.358978378</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>1157689.198978378</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>1158514.405478378</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>1490346.989746638</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>1490346.989746638</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>1490346.989746638</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>1490346.989746638</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>1468392.228946638</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>1468592.228946638</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>1527698.735219098</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>1527898.735219098</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>1697181.728419098</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>1704553.033443238</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>1691097.901335998</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>1422909.218728758</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>1422419.299328758</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>1455124.458228758</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>1451202.575728758</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>1451202.575728758</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>1451243.963328758</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>1965678.803304618</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>2033758.470104618</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>2149270.030804618</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>2156697.148804618</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>2156697.148804618</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>2148369.535404618</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>2141128.141304618</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>2141656.902204618</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>2137749.718965358</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>2110351.074635148</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>2110503.063035148</v>
       </c>
       <c r="H1211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>2117227.753935148</v>
       </c>
       <c r="H1212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>2117227.753935148</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>2095072.452935148</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>2095072.452935148</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>2095072.452935148</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>2095072.452935148</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>2037011.769835148</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>4576317.506724827</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>4496817.489724827</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>4545254.252024827</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>4524361.564524827</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>4633737.374124827</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>4658652.033324827</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>4739819.522908577</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>4739819.522908577</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>4662986.338008577</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>4633999.205308577</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>4767736.967808577</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>4767736.967808577</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>4773666.601308578</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>4793588.309429298</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>4795215.849229299</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>4774218.124229299</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>4699901.072029299</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>4733703.136220419</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>4719038.136220419</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>4753366.777350859</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>4709951.925350859</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>4699112.247750859</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>4860001.188118679</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>4825810.218617879</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>4828476.788317879</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>4887399.747217879</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>4870876.507317878</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>5248288.62568526</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>5001272.686685259</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>5102662.487785259</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>5205593.08400998</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>5276724.36098938</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>5414884.92778938</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>5590425.94305751</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>5737135.0971215</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
